--- a/adana ceyhan mahalle.xlsx
+++ b/adana ceyhan mahalle.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fintegral365-my.sharepoint.com/personal/oguz_oztekin_fintegral_com_tr/Documents/Masaüstü/Endeksa/Endeksa-Scrap/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_5D4D03E0F6B30BA7FFB3722635E8176F78795698" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15AEEC5D-B9CC-4946-89DB-C64DFC21A889}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="6000" yWindow="2025" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -703,8 +709,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -780,13 +786,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -824,7 +838,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -858,6 +872,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -892,9 +907,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1067,14 +1083,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A114" sqref="A1:C114"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1093,7 +1116,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1104,7 +1127,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1115,7 +1138,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1126,7 +1149,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1137,7 +1160,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1148,7 +1171,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1159,7 +1182,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1170,7 +1193,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1181,7 +1204,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1192,7 +1215,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1203,7 +1226,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1214,7 +1237,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1225,7 +1248,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1236,7 +1259,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1247,7 +1270,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1258,7 +1281,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1269,7 +1292,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1280,7 +1303,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1291,7 +1314,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1302,7 +1325,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1313,7 +1336,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1324,7 +1347,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1335,7 +1358,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1346,7 +1369,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1357,7 +1380,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1368,7 +1391,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1379,7 +1402,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1390,7 +1413,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1401,7 +1424,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1412,7 +1435,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1423,7 +1446,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1434,7 +1457,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1445,7 +1468,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1456,7 +1479,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1467,7 +1490,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1478,7 +1501,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1489,7 +1512,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1500,7 +1523,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1511,7 +1534,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1522,7 +1545,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1533,7 +1556,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1544,7 +1567,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1555,7 +1578,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1566,7 +1589,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1577,7 +1600,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1588,7 +1611,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1599,7 +1622,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1610,7 +1633,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1621,7 +1644,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1632,7 +1655,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1643,7 +1666,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1654,7 +1677,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1665,7 +1688,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1676,7 +1699,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1687,7 +1710,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1698,7 +1721,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1709,7 +1732,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1720,7 +1743,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1731,7 +1754,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1742,7 +1765,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1753,7 +1776,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1764,7 +1787,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1775,7 +1798,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1786,7 +1809,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1797,7 +1820,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1808,7 +1831,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1819,7 +1842,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1830,7 +1853,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1841,7 +1864,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1852,7 +1875,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1863,7 +1886,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1874,7 +1897,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1885,7 +1908,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1896,7 +1919,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1907,7 +1930,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1918,7 +1941,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1929,7 +1952,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1940,7 +1963,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1951,7 +1974,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1962,7 +1985,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1973,7 +1996,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1984,7 +2007,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1995,7 +2018,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2006,7 +2029,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2017,7 +2040,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2028,7 +2051,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2039,7 +2062,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2050,7 +2073,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2061,7 +2084,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2072,7 +2095,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2083,7 +2106,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2094,7 +2117,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2105,7 +2128,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2116,7 +2139,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2127,7 +2150,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2138,7 +2161,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2149,7 +2172,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2160,7 +2183,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2171,7 +2194,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2182,7 +2205,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2193,7 +2216,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2204,7 +2227,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2215,7 +2238,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2226,7 +2249,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2237,7 +2260,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2248,7 +2271,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2259,7 +2282,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2270,7 +2293,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2281,7 +2304,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2292,7 +2315,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2303,7 +2326,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2314,7 +2337,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2327,119 +2350,119 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
-    <hyperlink ref="C16" r:id="rId15"/>
-    <hyperlink ref="C17" r:id="rId16"/>
-    <hyperlink ref="C18" r:id="rId17"/>
-    <hyperlink ref="C19" r:id="rId18"/>
-    <hyperlink ref="C20" r:id="rId19"/>
-    <hyperlink ref="C21" r:id="rId20"/>
-    <hyperlink ref="C22" r:id="rId21"/>
-    <hyperlink ref="C23" r:id="rId22"/>
-    <hyperlink ref="C24" r:id="rId23"/>
-    <hyperlink ref="C25" r:id="rId24"/>
-    <hyperlink ref="C26" r:id="rId25"/>
-    <hyperlink ref="C27" r:id="rId26"/>
-    <hyperlink ref="C28" r:id="rId27"/>
-    <hyperlink ref="C29" r:id="rId28"/>
-    <hyperlink ref="C30" r:id="rId29"/>
-    <hyperlink ref="C31" r:id="rId30"/>
-    <hyperlink ref="C32" r:id="rId31"/>
-    <hyperlink ref="C33" r:id="rId32"/>
-    <hyperlink ref="C34" r:id="rId33"/>
-    <hyperlink ref="C35" r:id="rId34"/>
-    <hyperlink ref="C36" r:id="rId35"/>
-    <hyperlink ref="C37" r:id="rId36"/>
-    <hyperlink ref="C38" r:id="rId37"/>
-    <hyperlink ref="C39" r:id="rId38"/>
-    <hyperlink ref="C40" r:id="rId39"/>
-    <hyperlink ref="C41" r:id="rId40"/>
-    <hyperlink ref="C42" r:id="rId41"/>
-    <hyperlink ref="C43" r:id="rId42"/>
-    <hyperlink ref="C44" r:id="rId43"/>
-    <hyperlink ref="C45" r:id="rId44"/>
-    <hyperlink ref="C46" r:id="rId45"/>
-    <hyperlink ref="C47" r:id="rId46"/>
-    <hyperlink ref="C48" r:id="rId47"/>
-    <hyperlink ref="C49" r:id="rId48"/>
-    <hyperlink ref="C50" r:id="rId49"/>
-    <hyperlink ref="C51" r:id="rId50"/>
-    <hyperlink ref="C52" r:id="rId51"/>
-    <hyperlink ref="C53" r:id="rId52"/>
-    <hyperlink ref="C54" r:id="rId53"/>
-    <hyperlink ref="C55" r:id="rId54"/>
-    <hyperlink ref="C56" r:id="rId55"/>
-    <hyperlink ref="C57" r:id="rId56"/>
-    <hyperlink ref="C58" r:id="rId57"/>
-    <hyperlink ref="C59" r:id="rId58"/>
-    <hyperlink ref="C60" r:id="rId59"/>
-    <hyperlink ref="C61" r:id="rId60"/>
-    <hyperlink ref="C62" r:id="rId61"/>
-    <hyperlink ref="C63" r:id="rId62"/>
-    <hyperlink ref="C64" r:id="rId63"/>
-    <hyperlink ref="C65" r:id="rId64"/>
-    <hyperlink ref="C66" r:id="rId65"/>
-    <hyperlink ref="C67" r:id="rId66"/>
-    <hyperlink ref="C68" r:id="rId67"/>
-    <hyperlink ref="C69" r:id="rId68"/>
-    <hyperlink ref="C70" r:id="rId69"/>
-    <hyperlink ref="C71" r:id="rId70"/>
-    <hyperlink ref="C72" r:id="rId71"/>
-    <hyperlink ref="C73" r:id="rId72"/>
-    <hyperlink ref="C74" r:id="rId73"/>
-    <hyperlink ref="C75" r:id="rId74"/>
-    <hyperlink ref="C76" r:id="rId75"/>
-    <hyperlink ref="C77" r:id="rId76"/>
-    <hyperlink ref="C78" r:id="rId77"/>
-    <hyperlink ref="C79" r:id="rId78"/>
-    <hyperlink ref="C80" r:id="rId79"/>
-    <hyperlink ref="C81" r:id="rId80"/>
-    <hyperlink ref="C82" r:id="rId81"/>
-    <hyperlink ref="C83" r:id="rId82"/>
-    <hyperlink ref="C84" r:id="rId83"/>
-    <hyperlink ref="C85" r:id="rId84"/>
-    <hyperlink ref="C86" r:id="rId85"/>
-    <hyperlink ref="C87" r:id="rId86"/>
-    <hyperlink ref="C88" r:id="rId87"/>
-    <hyperlink ref="C89" r:id="rId88"/>
-    <hyperlink ref="C90" r:id="rId89"/>
-    <hyperlink ref="C91" r:id="rId90"/>
-    <hyperlink ref="C92" r:id="rId91"/>
-    <hyperlink ref="C93" r:id="rId92"/>
-    <hyperlink ref="C94" r:id="rId93"/>
-    <hyperlink ref="C95" r:id="rId94"/>
-    <hyperlink ref="C96" r:id="rId95"/>
-    <hyperlink ref="C97" r:id="rId96"/>
-    <hyperlink ref="C98" r:id="rId97"/>
-    <hyperlink ref="C99" r:id="rId98"/>
-    <hyperlink ref="C100" r:id="rId99"/>
-    <hyperlink ref="C101" r:id="rId100"/>
-    <hyperlink ref="C102" r:id="rId101"/>
-    <hyperlink ref="C103" r:id="rId102"/>
-    <hyperlink ref="C104" r:id="rId103"/>
-    <hyperlink ref="C105" r:id="rId104"/>
-    <hyperlink ref="C106" r:id="rId105"/>
-    <hyperlink ref="C107" r:id="rId106"/>
-    <hyperlink ref="C108" r:id="rId107"/>
-    <hyperlink ref="C109" r:id="rId108"/>
-    <hyperlink ref="C110" r:id="rId109"/>
-    <hyperlink ref="C111" r:id="rId110"/>
-    <hyperlink ref="C112" r:id="rId111"/>
-    <hyperlink ref="C113" r:id="rId112"/>
-    <hyperlink ref="C114" r:id="rId113"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="C114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
